--- a/reports/2022.03.13 tas-diff-add-del.xlsx
+++ b/reports/2022.03.13 tas-diff-add-del.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpannone\Documents\GitHub\tas-diff-add-del\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7B35F7-287C-4744-BE18-DB731A815D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ECC0BE-B8AE-4740-9B31-8EECCF142C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8724"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="2022.03.13 tas-diff-add-del" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="356">
   <si>
     <t>REGION</t>
   </si>
@@ -76,7 +76,7 @@
     <t>(DELETED)</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) 2022.01.18 ADDED </t>
+    <t>(1)   [on 2022.02.22 project was added.]</t>
   </si>
   <si>
     <t>Anchorage and Eagle River Street Sweeping - Area A</t>
@@ -114,7 +114,7 @@
 The State may opt to offer renewal of this contract for five (5) additional one (1) year periods.</t>
   </si>
   <si>
-    <t xml:space="preserve">(5) 2021.12.20 ANTADVDT January 2022; 2021.12.20 PHONENUM ; 2022.01.18 ANTADVDT February 2022; 2022.01.18 DESCRIPTION ; 2022.01.18 FEDNUM </t>
+    <t>(5)   [on 2022.01.18 the ANTADVDT changed to February 2022.]; [on 2022.01.18 PHONENUM changed.]; [on 2022.02.22 the ANTADVDT changed to March 2022.]; [on 2022.02.22 DESCRIPTION changed.]; [on 2022.02.22 FEDNUM changed.]</t>
   </si>
   <si>
     <t>NAPASKIAK AIRPORT SNOW REMOVAL EQUIPMENT BUILDINGS</t>
@@ -219,6 +219,9 @@
     <t>Project will repair joints and asphalt on Runway 7R/25L.</t>
   </si>
   <si>
+    <t>(1)   [on 2022.01.18 project was added.]</t>
+  </si>
+  <si>
     <t>ANC RUNWAY 7R/25L JOINT REPAIR</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
     <t>CFAPT00465</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 the ANTADVDT changed to March 2022.]; [on 2022.02.22 the ANTADVDT changed to April 2022.]</t>
+  </si>
+  <si>
     <t>ANCHORAGE AREA DRAINAGE IMPROVEMENTS  FY2019</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
   </si>
   <si>
     <t>CFHWY00568</t>
+  </si>
+  <si>
+    <t>(1)   [on 2022.02.22 the ANTADVDT changed to May 2022.]</t>
   </si>
   <si>
     <t>LHD AIRCRAFT AND LAKESHORE DRIVE REHABILITATION</t>
@@ -319,6 +328,9 @@
     <t>Between $40,000,000 and $50,000,000</t>
   </si>
   <si>
+    <t>(1)   [on 2022.02.22 PHONENUM changed.]</t>
+  </si>
+  <si>
     <t>Colleen Street Intersection and Frontage Road</t>
   </si>
   <si>
@@ -334,12 +346,18 @@
     <t>3-02-0016-214-2022</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 the ANTADVDT changed to February 2022.]; [on 2022.02.22 the ANTADVDT changed to March 2022.]</t>
+  </si>
+  <si>
     <t>ANC GATES B4, B6, B7, B8, &amp; B9 IMPROVEMENTS</t>
   </si>
   <si>
     <t>CFAPT00718</t>
   </si>
   <si>
+    <t>(1)   [on 2022.02.22 the ANTADVDT changed to April 2022.]</t>
+  </si>
+  <si>
     <t>KNIK-GOOSE BAY RD RECONST, PHASE 1 - FAIRVIEW LOOP TO CENTAUR AVENUE</t>
   </si>
   <si>
@@ -403,7 +421,7 @@
     <t>Northern Region</t>
   </si>
   <si>
-    <t>(1) 2022.01.18 ANTADVDT January 2022</t>
+    <t>(1)   [on 2022.02.22 the ANTADVDT changed to February 2022.]</t>
   </si>
   <si>
     <t>Barrow Airport Visual Aid Replacement</t>
@@ -478,7 +496,7 @@
     <t>Between $5,000,000 and $10,000,000</t>
   </si>
   <si>
-    <t>(1) 2022.01.18 ANTADVDT February 2022</t>
+    <t>(1)   [on 2022.02.22 the ANTADVDT changed to March 2022.]</t>
   </si>
   <si>
     <t>HSIP: Airport Way / Steese Expressway Reconstruction</t>
@@ -590,6 +608,9 @@
     <t>DOT&amp;PF's ability to upload pdfs is currently having issues. If you would like a copy of the preliminary plans, please contact john.netardus@alaska.gov</t>
   </si>
   <si>
+    <t>(3)   [on 2022.01.18 DESCRIPTION changed.]; [on 2022.01.18 FEDNUM changed.]; [on 2022.01.18 LOCATION changed.]</t>
+  </si>
+  <si>
     <t>Taylor Highway MP 54 Culvert Replacement</t>
   </si>
   <si>
@@ -611,12 +632,18 @@
     <t>Z609110000</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 DESCRIPTION changed.]; [on 2022.01.18 FEDNUM changed.]</t>
+  </si>
+  <si>
     <t>FAST Area Surface Upgrades FFY2022</t>
   </si>
   <si>
     <t>NFHWY00603</t>
   </si>
   <si>
+    <t>(4)   [on 2022.02.22 the ANTADVDT changed to March 2022.]; [on 2022.02.22 ENGEST changed.]; [on 2022.02.22 FEDNUM changed.]; [on 2022.02.22 PROJNAME changed.]</t>
+  </si>
+  <si>
     <t>Tetlin National Wildlife Refuge Visitor Center (WFL)</t>
   </si>
   <si>
@@ -626,6 +653,9 @@
     <t>NFHWY00550</t>
   </si>
   <si>
+    <t>(2)   [on 2022.02.22 DESCRIPTION changed.]; [on 2022.02.22 PROJNAME changed.]</t>
+  </si>
+  <si>
     <t>FMATS North Pole Streetlight Standardization &amp; Improvements</t>
   </si>
   <si>
@@ -635,6 +665,9 @@
     <t>NFHWY00269</t>
   </si>
   <si>
+    <t>(3)   [on 2022.01.18 FEDNUM changed.]; [on 2022.01.18 PROJNAME changed.]; [on 2022.02.22 the ANTADVDT changed to April 2022.]</t>
+  </si>
+  <si>
     <t>Kotzebue Airport Runway Settlement Repair</t>
   </si>
   <si>
@@ -644,6 +677,9 @@
     <t>NFAPT00650</t>
   </si>
   <si>
+    <t>(1)   [on 2022.02.22 PROJNAME changed.]</t>
+  </si>
+  <si>
     <t>Richardson Highway MP 35-65 Resurfacing (Construction 35-40)</t>
   </si>
   <si>
@@ -692,6 +728,9 @@
     <t>3-02-0083-___-____</t>
   </si>
   <si>
+    <t>(6)   [on 2022.01.18 the ANTADVDT changed to March 2022.]; [on 2022.02.22 ADDLINFO changed.]; [on 2022.02.22 DESCRIPTION changed.]; [on 2022.02.22 ENGEST changed.]; [on 2022.02.22 LOCATION changed.]; [on 2022.02.22 PROJNAME changed.]</t>
+  </si>
+  <si>
     <t>Eagle Airport Electrical Equipment Building Replacement</t>
   </si>
   <si>
@@ -719,6 +758,9 @@
     <t>3-02-0226-___-____</t>
   </si>
   <si>
+    <t>(2)   [on 2022.01.18 the ANTADVDT changed to March 2022.]; [on 2022.02.22 the ANTADVDT changed to May 2022.]</t>
+  </si>
+  <si>
     <t>Point Hope Airport Realignment</t>
   </si>
   <si>
@@ -788,7 +830,7 @@
     <t>Less than $200,000</t>
   </si>
   <si>
-    <t xml:space="preserve">(2) 2021.12.20 ADDED ; 2022.01.18 ADDLINFO </t>
+    <t>(2)   [on 2022.01.18 project was added.]; [on 2022.02.22 ADDLINFO changed.]</t>
   </si>
   <si>
     <t>KDK: ADQ AIRPORT APRON AND TWY C, D AND F REHAB</t>
@@ -810,9 +852,6 @@
   </si>
   <si>
     <t>PFAS Investigation may cause delay depending on results and how to manage waste material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) 2021.12.20 ADDED </t>
   </si>
   <si>
     <t>KODIAK: OTMELOI WAY REHABILITATION</t>
@@ -876,6 +915,9 @@
     <t>SFHWY00315</t>
   </si>
   <si>
+    <t>(2)   [on 2022.02.22 the ANTADVDT changed to December 2022.]; [on 2022.02.22 ENGEST changed.]</t>
+  </si>
+  <si>
     <t>HNH HARBOR WAY PEDESTRIAN IMP &amp; PITT ISLAND CEMETERY WALKWY</t>
   </si>
   <si>
@@ -926,6 +968,9 @@
 T02000 - Par - All Costs</t>
   </si>
   <si>
+    <t>(1)   [on 2022.01.18 ENGEST changed.]</t>
+  </si>
+  <si>
     <t>HNH SEAPLANE FACILITY DREDGING AND CREEK RELOCATION</t>
   </si>
   <si>
@@ -1076,6 +1121,9 @@
   </si>
   <si>
     <t>JNU FRANKLIN AND THANE RESURFACING: TRAM PARKING LOT TO MT. ROBERTS ST</t>
+  </si>
+  <si>
+    <t>(2)   [on 2022.02.22 the ANTADVDT changed to May 2022.]; [on 2022.02.22 PROJNAME changed.]</t>
   </si>
   <si>
     <t>SFHWY00263</t>
@@ -1982,8 +2030,8 @@
     <col min="6" max="6" width="65.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" style="9" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="100.77734375" customWidth="1"/>
+    <col min="9" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2327,8 +2375,11 @@
       <c r="D9" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>42</v>
@@ -2337,7 +2388,7 @@
         <v>44682</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2353,8 +2404,11 @@
       <c r="D10" s="10">
         <v>44682</v>
       </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>42</v>
@@ -2363,7 +2417,7 @@
         <v>44682</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,7 +2434,7 @@
         <v>44713</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>42</v>
@@ -2389,7 +2443,7 @@
         <v>44713</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2405,8 +2459,11 @@
       <c r="D12" s="10">
         <v>44682</v>
       </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>42</v>
@@ -2415,7 +2472,7 @@
         <v>44682</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2432,16 +2489,16 @@
         <v>44682</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1">
         <v>44682</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2458,16 +2515,16 @@
         <v>44713</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1">
         <v>44713</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2483,8 +2540,11 @@
       <c r="D15" s="10">
         <v>44835</v>
       </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>42</v>
@@ -2493,7 +2553,7 @@
         <v>44835</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2510,16 +2570,16 @@
         <v>44958</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1">
         <v>44958</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2535,8 +2595,11 @@
       <c r="D17" s="10">
         <v>44805</v>
       </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>42</v>
@@ -2545,7 +2608,7 @@
         <v>44805</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2561,17 +2624,20 @@
       <c r="D18" s="10">
         <v>44958</v>
       </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1">
         <v>44958</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,13 +2648,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>42</v>
@@ -2597,7 +2666,7 @@
         <v>44682</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,13 +2677,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>42</v>
@@ -2623,7 +2695,7 @@
         <v>44835</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2634,13 +2706,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>42</v>
@@ -2649,7 +2724,7 @@
         <v>44805</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2660,13 +2735,16 @@
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>42</v>
@@ -2675,7 +2753,7 @@
         <v>44927</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2691,8 +2769,11 @@
       <c r="D23" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>42</v>
@@ -2701,7 +2782,7 @@
         <v>44682</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,22 +2793,22 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1">
         <v>44958</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2740,17 +2821,20 @@
       <c r="D25" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1">
         <v>44743</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,13 +2845,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>42</v>
@@ -2776,7 +2863,7 @@
         <v>44621</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2792,17 +2879,20 @@
       <c r="D27" s="9">
         <v>525019</v>
       </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1">
         <v>44652</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,13 +2903,16 @@
         <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>42</v>
@@ -2828,7 +2921,7 @@
         <v>44682</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2839,13 +2932,16 @@
         <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>42</v>
@@ -2854,7 +2950,7 @@
         <v>44835</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2865,13 +2961,16 @@
         <v>12</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>42</v>
@@ -2880,7 +2979,7 @@
         <v>44805</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2891,13 +2990,16 @@
         <v>12</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>42</v>
@@ -2906,7 +3008,7 @@
         <v>44927</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2917,22 +3019,22 @@
         <v>11</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1">
         <v>44682</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2943,22 +3045,22 @@
         <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1">
         <v>44958</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2969,13 +3071,13 @@
         <v>11</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>42</v>
@@ -2984,7 +3086,7 @@
         <v>44835</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2995,22 +3097,22 @@
         <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1">
         <v>44866</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3021,13 +3123,13 @@
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>16</v>
@@ -3036,7 +3138,7 @@
         <v>44866</v>
       </c>
       <c r="I36" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,13 +3149,13 @@
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>16</v>
@@ -3062,7 +3164,7 @@
         <v>44866</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3073,13 +3175,16 @@
         <v>5</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>42</v>
@@ -3088,212 +3193,212 @@
         <v>44835</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H39" s="1">
         <v>44593</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N39" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H40" s="1">
         <v>44593</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K40">
         <v>2337</v>
       </c>
       <c r="L40" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N40" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H41" s="1">
         <v>44621</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N41" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H42" s="1">
         <v>44621</v>
       </c>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K42">
         <v>2385</v>
       </c>
       <c r="L42" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H43" s="1">
         <v>44621</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K43">
         <v>651033</v>
       </c>
       <c r="L43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M43" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O43" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P43" t="s">
         <v>39</v>
@@ -3301,43 +3406,43 @@
     </row>
     <row r="44" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H44" s="1">
         <v>44621</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P44" t="s">
         <v>26</v>
@@ -3345,141 +3450,144 @@
     </row>
     <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H45" s="1">
         <v>44682</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M45" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N45" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1">
         <v>44682</v>
       </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J46" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K46">
         <v>711082</v>
       </c>
       <c r="L46" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M46" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H47" s="1">
         <v>44958</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J47" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N47" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H48" s="1">
         <v>44621</v>
       </c>
       <c r="I48" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>7</v>
@@ -3490,22 +3598,25 @@
       <c r="D49" s="10">
         <v>44652</v>
       </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H49" s="1">
         <v>44652</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>7</v>
@@ -3516,22 +3627,25 @@
       <c r="D50" s="10">
         <v>44652</v>
       </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1">
         <v>44652</v>
       </c>
       <c r="I50" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>7</v>
@@ -3542,22 +3656,25 @@
       <c r="D51" s="10">
         <v>44652</v>
       </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H51" s="1">
         <v>44652</v>
       </c>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>7</v>
@@ -3568,22 +3685,25 @@
       <c r="D52" s="10">
         <v>44652</v>
       </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H52" s="1">
         <v>44652</v>
       </c>
       <c r="I52" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>7</v>
@@ -3594,22 +3714,25 @@
       <c r="D53" s="10">
         <v>44682</v>
       </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
       <c r="F53" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H53" s="1">
         <v>44682</v>
       </c>
       <c r="I53" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>7</v>
@@ -3620,22 +3743,25 @@
       <c r="D54" s="10">
         <v>44621</v>
       </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H54" s="1">
         <v>44621</v>
       </c>
       <c r="I54" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>7</v>
@@ -3646,22 +3772,25 @@
       <c r="D55" s="10">
         <v>44927</v>
       </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H55" s="1">
         <v>44927</v>
       </c>
       <c r="I55" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>7</v>
@@ -3672,22 +3801,25 @@
       <c r="D56" s="10">
         <v>44652</v>
       </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H56" s="1">
         <v>44652</v>
       </c>
       <c r="I56" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>7</v>
@@ -3699,99 +3831,108 @@
         <v>44682</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H57" s="1">
         <v>44682</v>
       </c>
       <c r="I57" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="E58" t="s">
+        <v>202</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H58" s="1">
         <v>44652</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H59" s="1">
         <v>44621</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="F60" t="s">
         <v>218</v>
       </c>
-      <c r="F60" t="s">
-        <v>206</v>
-      </c>
       <c r="G60" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H60" s="1">
         <v>44927</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>15</v>
@@ -3799,22 +3940,25 @@
       <c r="D61" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="E61" t="s">
+        <v>202</v>
+      </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H61" s="1">
         <v>44652</v>
       </c>
       <c r="I61" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>15</v>
@@ -3826,255 +3970,282 @@
         <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H62" s="1">
         <v>44682</v>
       </c>
       <c r="I62" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>221</v>
+        <v>233</v>
+      </c>
+      <c r="E63" t="s">
+        <v>234</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H63" s="1">
         <v>44621</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H64" s="1">
         <v>44621</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H65" s="1">
         <v>44682</v>
       </c>
       <c r="I65" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>235</v>
+        <v>249</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H66" s="1">
         <v>44682</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>240</v>
+        <v>254</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H67" s="1">
         <v>44682</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H68" s="1">
         <v>44652</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H69" s="1">
         <v>44621</v>
       </c>
       <c r="I69" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="E70" t="s">
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H70" s="1">
         <v>44927</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H71" s="1">
         <v>44682</v>
       </c>
       <c r="I71" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>17</v>
@@ -4083,151 +4254,151 @@
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H72" s="1">
         <v>44621</v>
       </c>
       <c r="I72" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J72" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="K72" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L72" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M72" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N72" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H73" s="1">
         <v>44896</v>
       </c>
       <c r="I73" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J73" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K73" t="s">
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M73" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="N73" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="O73" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="P73" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H74" s="1">
         <v>44896</v>
       </c>
       <c r="I74" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="J74" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H75" s="1">
         <v>44958</v>
       </c>
       <c r="I75" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="J75" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K75">
         <v>958032</v>
       </c>
       <c r="L75" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P75" t="s">
         <v>39</v>
@@ -4235,7 +4406,7 @@
     </row>
     <row r="76" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>7</v>
@@ -4246,22 +4417,25 @@
       <c r="D76" s="10">
         <v>44682</v>
       </c>
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
       <c r="F76" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H76" s="1">
         <v>44682</v>
       </c>
       <c r="I76" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>7</v>
@@ -4272,22 +4446,25 @@
       <c r="D77" s="10">
         <v>44652</v>
       </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
       <c r="F77" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H77" s="1">
         <v>44652</v>
       </c>
       <c r="I77" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>7</v>
@@ -4298,22 +4475,25 @@
       <c r="D78" s="10">
         <v>44682</v>
       </c>
+      <c r="E78" t="s">
+        <v>110</v>
+      </c>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H78" s="1">
         <v>44682</v>
       </c>
       <c r="I78" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>7</v>
@@ -4324,22 +4504,25 @@
       <c r="D79" s="10">
         <v>44682</v>
       </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H79" s="1">
         <v>44682</v>
       </c>
       <c r="I79" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>7</v>
@@ -4350,308 +4533,332 @@
       <c r="D80" s="10">
         <v>44958</v>
       </c>
+      <c r="E80" t="s">
+        <v>292</v>
+      </c>
       <c r="F80" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H80" s="1">
         <v>44958</v>
       </c>
       <c r="I80" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="H81" s="1">
         <v>44621</v>
       </c>
       <c r="I81" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H82" s="1">
         <v>44621</v>
       </c>
       <c r="I82" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>292</v>
+        <v>306</v>
+      </c>
+      <c r="E83" t="s">
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H83" s="1">
         <v>44713</v>
       </c>
       <c r="I83" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H84" s="1">
         <v>44774</v>
       </c>
       <c r="I84" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H85" s="1">
         <v>44774</v>
       </c>
       <c r="I85" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>305</v>
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H86" s="1">
         <v>44835</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H87" s="1">
         <v>44835</v>
       </c>
       <c r="I87" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>314</v>
+        <v>329</v>
+      </c>
+      <c r="E88" t="s">
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H88" s="1">
         <v>44896</v>
       </c>
       <c r="I88" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>318</v>
+        <v>333</v>
+      </c>
+      <c r="E89" t="s">
+        <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H89" s="1">
         <v>44896</v>
       </c>
       <c r="I89" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H90" s="1">
         <v>44896</v>
       </c>
       <c r="I90" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>328</v>
+        <v>343</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H91" s="1">
         <v>44927</v>
       </c>
       <c r="I91" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>10</v>
@@ -4660,24 +4867,27 @@
         <v>22</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>332</v>
+        <v>347</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H92" s="1">
         <v>44562</v>
       </c>
       <c r="I92" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>10</v>
@@ -4688,121 +4898,136 @@
       <c r="D93" s="9">
         <v>3273</v>
       </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
       <c r="F93" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H93" s="1">
         <v>44621</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H94" s="1">
         <v>44562</v>
       </c>
       <c r="I94" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="E95" t="s">
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H95" s="1">
         <v>44562</v>
       </c>
       <c r="I95" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H96" s="1">
         <v>44896</v>
       </c>
       <c r="I96" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>338</v>
+        <v>353</v>
+      </c>
+      <c r="E97" t="s">
+        <v>354</v>
       </c>
       <c r="F97" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H97" s="1">
         <v>44682</v>
       </c>
       <c r="I97" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
